--- a/Location Details/Massachusetts Ave, Indianapolis, IN 46204_arts.xlsx
+++ b/Location Details/Massachusetts Ave, Indianapolis, IN 46204_arts.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E60"/>
+  <dimension ref="A1:E59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -457,7 +457,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -499,7 +499,7 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>15</v>
+        <v>53</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -508,19 +508,19 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>ArtMix</t>
+          <t>Art To Remember</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>5</v>
+        <v>3.9</v>
       </c>
       <c r="E4" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -529,19 +529,19 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Arts Council of Indianapolis</t>
+          <t>ArtMix</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="E5" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -550,19 +550,19 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Arts for Lawrence</t>
+          <t>Arts Council of Indianapolis</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="E6" t="n">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -571,19 +571,19 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Arts for Learning</t>
+          <t>Arts for Lawrence</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>4.9</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -592,19 +592,19 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Carmel International Arts Festival</t>
+          <t>Arts for Learning</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>4.8</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -613,19 +613,19 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Cat Head Press: Printshop and Artist Cooperative</t>
+          <t>Carmel International Arts Festival</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>5</v>
+        <v>4.8</v>
       </c>
       <c r="E9" t="n">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -634,40 +634,40 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Christel De Haan Fine Arts Center</t>
+          <t>Cat Head Press: Printshop and Artist Cooperative</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>4.6</v>
+        <v>5</v>
       </c>
       <c r="E10" t="n">
-        <v>15</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>46</v>
+        <v>9</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>CLOSED_TEMPORARILY</t>
+          <t>OPERATIONAL</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>CityWay Gallery</t>
+          <t>Christel De Haan Fine Arts Center</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>3.8</v>
+        <v>4.6</v>
       </c>
       <c r="E11" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -688,7 +688,7 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -709,7 +709,7 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -730,7 +730,7 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -772,7 +772,7 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -814,7 +814,7 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -856,7 +856,7 @@
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -877,7 +877,7 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -898,7 +898,7 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -940,7 +940,7 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
@@ -961,7 +961,7 @@
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
@@ -1024,7 +1024,7 @@
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
@@ -1045,7 +1045,7 @@
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
@@ -1066,7 +1066,7 @@
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
@@ -1087,7 +1087,7 @@
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
@@ -1108,7 +1108,7 @@
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
@@ -1150,7 +1150,7 @@
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
@@ -1255,7 +1255,7 @@
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
@@ -1264,19 +1264,19 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Midland Arts &amp; Antiques Market</t>
+          <t>Mooresville Arts Partnership</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>4.6</v>
+        <v>4</v>
       </c>
       <c r="E40" t="n">
-        <v>688</v>
+        <v>29</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
@@ -1285,14 +1285,14 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Mooresville Arts Partnership</t>
+          <t>Newfields</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>4</v>
+        <v>4.7</v>
       </c>
       <c r="E41" t="n">
-        <v>29</v>
+        <v>3896</v>
       </c>
     </row>
     <row r="42">
@@ -1306,19 +1306,19 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Newfields</t>
+          <t>Palette Art Studio</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>4.7</v>
+        <v>5</v>
       </c>
       <c r="E42" t="n">
-        <v>3894</v>
+        <v>7</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
@@ -1327,19 +1327,19 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Palette Art Studio</t>
+          <t>Performing Arts</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
@@ -1348,19 +1348,19 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Performing Arts</t>
+          <t>Red Barn Arts Collective</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>56</v>
+        <v>28</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
@@ -1369,19 +1369,19 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Red Barn Arts Collective</t>
+          <t>Schrott Center for the Arts</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>5</v>
+        <v>4.8</v>
       </c>
       <c r="E45" t="n">
-        <v>1</v>
+        <v>106</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
@@ -1390,19 +1390,19 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Schrott Center for the Arts</t>
+          <t>Sho Arts</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="E46" t="n">
-        <v>106</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>1</v>
+        <v>59</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
@@ -1411,7 +1411,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Sho Arts</t>
+          <t>Sidney &amp; Lois Eskenazi Fine Arts Center</t>
         </is>
       </c>
       <c r="D47" t="n">
@@ -1423,7 +1423,7 @@
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
@@ -1486,7 +1486,7 @@
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
@@ -1507,7 +1507,7 @@
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
@@ -1549,7 +1549,7 @@
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
@@ -1570,7 +1570,7 @@
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
@@ -1591,7 +1591,7 @@
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
@@ -1607,7 +1607,7 @@
         <v>4.5</v>
       </c>
       <c r="E56" t="n">
-        <v>58</v>
+        <v>132</v>
       </c>
     </row>
     <row r="57">
@@ -1633,7 +1633,7 @@
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
@@ -1642,19 +1642,19 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Zionsville Performing Arts Center</t>
+          <t>carmel academy of the arts</t>
         </is>
       </c>
       <c r="D58" t="n">
-        <v>4.7</v>
+        <v>0</v>
       </c>
       <c r="E58" t="n">
-        <v>175</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
@@ -1663,34 +1663,13 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>carmel academy of the arts</t>
+          <t>iDREAM Music And Arts Center</t>
         </is>
       </c>
       <c r="D59" t="n">
         <v>0</v>
       </c>
       <c r="E59" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="1" t="n">
-        <v>58</v>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>OPERATIONAL</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>iDREAM Music And Arts Center</t>
-        </is>
-      </c>
-      <c r="D60" t="n">
-        <v>0</v>
-      </c>
-      <c r="E60" t="n">
         <v>0</v>
       </c>
     </row>
